--- a/Example_Data/Rebeccas_Excels/Reb_DailyWaterLevels_GlenmoreReservoir.xlsx
+++ b/Example_Data/Rebeccas_Excels/Reb_DailyWaterLevels_GlenmoreReservoir.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4073d49f580b59d/OneDocs/GitHub/C--Hacks2019/Example_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arebe\OneDrive\OneDocs\GitHub\C--Hacks2019\Example_Data\Rebeccas_Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6CC7F1-7ABB-4AC2-AF9D-21CF85330F07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4E6CC7F1-7ABB-4AC2-AF9D-21CF85330F07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D6E2F4FC-B4F8-4EED-83A1-C8307C9D6141}"/>
   <bookViews>
-    <workbookView xWindow="15795" yWindow="1590" windowWidth="10185" windowHeight="11385"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily__Feb-16-2019_11_38_47PM_G" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="23">
   <si>
     <t>﻿Daily Water Level (m) (PARAM = 2)</t>
   </si>
@@ -87,11 +95,14 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>stdev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,19 +936,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1078,8 +1091,11 @@
       <c r="AB3">
         <v>1075.914</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1131,8 +1147,12 @@
       <c r="AB4">
         <v>1075.883</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE4">
+        <f>_xlfn.STDEV.S(F3:AB1304)</f>
+        <v>0.88898004733510216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1205,7 @@
         <v>1075.8710000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1238,7 +1258,7 @@
         <v>1075.8409999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1291,7 +1311,7 @@
         <v>1075.81</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1364,7 @@
         <v>1075.7739999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>1075.7429999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1470,7 @@
         <v>1075.694</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +1523,7 @@
         <v>1075.6579999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1556,7 +1576,7 @@
         <v>1075.615</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1629,7 @@
         <v>1075.5909999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1682,7 @@
         <v>1075.5719999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1735,7 @@
         <v>1075.5540000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
